--- a/domain_files/ifdat/model/INCOME_DATAMODEL.xlsx
+++ b/domain_files/ifdat/model/INCOME_DATAMODEL.xlsx
@@ -16,16 +16,18 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GEN_FRQNCY_ENUM" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_OBSRVTN_STTS_ENUM" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATTR_CNFDNTLTY_STTS_ENUM" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="INCM_EXPNS_ENUM" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'DSDS'!$A$1:$D$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'DIMS'!$A$1:$C$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'MEASURES'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'ATTRS'!$A$1:$E$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'INCM_RVN_ENUM'!$A$1:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'GEN_FRQNCY_ENUM'!$A$1:$C$36</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'ATTR_OBSRVTN_STTS_ENUM'!$A$1:$C$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'ATTR_CNFDNTLTY_STTS_ENUM'!$A$1:$C$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'INCM_EXPNS_ENUM'!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -852,6 +854,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6.5" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="42" customHeight="1">
+      <c r="A1" s="2">
+        <f>HYPERLINK("#DSDS!A1", "ID")</f>
+        <v/>
+      </c>
+      <c r="B1" s="12">
+        <f>HYPERLINK("#MEASURES!A1", "NAME")</f>
+        <v/>
+      </c>
+      <c r="C1" s="12">
+        <f>HYPERLINK("#DIMS!A1", "DESCRIPTION")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B2" s="15" t="inlineStr">
+        <is>
+          <t>Reset</t>
+        </is>
+      </c>
+      <c r="C2" s="15" t="inlineStr">
+        <is>
+          <t>Reset value</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="36" customHeight="1">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>E1</t>
+        </is>
+      </c>
+      <c r="B3" s="16" t="inlineStr">
+        <is>
+          <t>Interest paid</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t>Interest paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="36" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t>Rents paid</t>
+        </is>
+      </c>
+      <c r="C4" s="15" t="inlineStr">
+        <is>
+          <t>Rents paid</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="36" customHeight="1">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="B5" s="16" t="inlineStr">
+        <is>
+          <t>Financial fees/services paid by the fund (mostly for buying and selling financial assets)</t>
+        </is>
+      </c>
+      <c r="C5" s="16" t="inlineStr">
+        <is>
+          <t>Financial fees/services paid by the fund (mostly for buying and selling financial assets)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="36" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>E4</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>Management fees</t>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>Management fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>E5</t>
+        </is>
+      </c>
+      <c r="B7" s="16" t="inlineStr">
+        <is>
+          <t>Depository fees</t>
+        </is>
+      </c>
+      <c r="C7" s="16" t="inlineStr">
+        <is>
+          <t>Depository fees</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="36" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>E6</t>
+        </is>
+      </c>
+      <c r="B8" s="15" t="inlineStr">
+        <is>
+          <t>Taxes paid (but not those of behalf of shareholders)</t>
+        </is>
+      </c>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>Taxes paid (but not those of behalf of shareholders)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="36" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>E7</t>
+        </is>
+      </c>
+      <c r="B9" s="16" t="inlineStr">
+        <is>
+          <t>wages</t>
+        </is>
+      </c>
+      <c r="C9" s="16" t="inlineStr">
+        <is>
+          <t>wages</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="36" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>E8</t>
+        </is>
+      </c>
+      <c r="B10" s="15" t="inlineStr">
+        <is>
+          <t>bad debt expense</t>
+        </is>
+      </c>
+      <c r="C10" s="15" t="inlineStr">
+        <is>
+          <t>bad debt expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="36" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>E9</t>
+        </is>
+      </c>
+      <c r="B11" s="16" t="inlineStr">
+        <is>
+          <t>bad loan expense</t>
+        </is>
+      </c>
+      <c r="C11" s="16" t="inlineStr">
+        <is>
+          <t>bad loan expense</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="36" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>E10</t>
+        </is>
+      </c>
+      <c r="B12" s="15" t="inlineStr">
+        <is>
+          <t>Other fees and charges paid</t>
+        </is>
+      </c>
+      <c r="C12" s="15" t="inlineStr">
+        <is>
+          <t>Other fees and charges paid</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C12"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -867,7 +1098,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.7" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
@@ -970,7 +1201,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.7" customWidth="1" min="1" max="1"/>
     <col width="14.3" customWidth="1" min="2" max="2"/>
@@ -1007,7 +1238,7 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1306,7 @@
       </c>
       <c r="C6" s="11" t="inlineStr">
         <is>
-          <t>STR32_ID</t>
+          <t>ID</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1323,7 @@
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>INCM_RVN_ENUM</t>
+          <t>INCM_EXPNS_ENUM</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1396,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.7" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -1284,7 +1515,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.7" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
@@ -1566,7 +1797,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1575,7 +1806,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
@@ -1599,90 +1830,107 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>R1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="15" t="inlineStr">
         <is>
-          <t>Interest received</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Interest received</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>R2</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="B3" s="16" t="inlineStr">
         <is>
-          <t>Dividends received</t>
+          <t>Interest received</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>Dividends received</t>
+          <t>Interest received</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>R3</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t>Rents received</t>
+          <t>Dividends received</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Rents received</t>
+          <t>Dividends received</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>R4</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="B5" s="16" t="inlineStr">
         <is>
-          <t>Reinvested earnings on FDI</t>
+          <t>Rents received</t>
         </is>
       </c>
       <c r="C5" s="16" t="inlineStr">
         <is>
-          <t>Reinvested earnings on FDI</t>
+          <t>Rents received</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
+          <t>R4</t>
+        </is>
+      </c>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t>Reinvested earnings on FDI</t>
+        </is>
+      </c>
+      <c r="C6" s="15" t="inlineStr">
+        <is>
+          <t>Reinvested earnings on FDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="36" customHeight="1">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
+      <c r="B7" s="16" t="inlineStr">
         <is>
           <t>Investment income attributable to policy holders in insurance, standardized guarantees and pension funds</t>
         </is>
       </c>
-      <c r="C6" s="15" t="inlineStr">
+      <c r="C7" s="16" t="inlineStr">
         <is>
           <t>Investment income attributable to policy holders in insurance, standardized guarantees and pension funds</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C6"/>
+  <autoFilter ref="A1:C7"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1693,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1702,7 +1950,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="6.5" customWidth="1" min="1" max="1"/>
     <col width="29.9" customWidth="1" min="2" max="2"/>
@@ -1726,583 +1974,600 @@
     <row r="2" ht="36" customHeight="1">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset</t>
         </is>
       </c>
       <c r="C2" s="15" t="inlineStr">
         <is>
-          <t>Annual</t>
+          <t>Reset value</t>
         </is>
       </c>
     </row>
     <row r="3" ht="36" customHeight="1">
       <c r="A3" s="6" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
       <c r="C3" s="16" t="inlineStr">
         <is>
-          <t>Daily - businessweek</t>
+          <t>Annual</t>
         </is>
       </c>
     </row>
     <row r="4" ht="36" customHeight="1">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
       <c r="C4" s="15" t="inlineStr">
         <is>
-          <t>Daily</t>
+          <t>Daily - businessweek</t>
         </is>
       </c>
     </row>
     <row r="5" ht="36" customHeight="1">
       <c r="A5" s="6" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
       <c r="C5" s="16" t="inlineStr">
         <is>
-          <t>Hourly</t>
+          <t>Daily</t>
         </is>
       </c>
     </row>
     <row r="6" ht="36" customHeight="1">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
       <c r="C6" s="15" t="inlineStr">
         <is>
-          <t>Monthly</t>
+          <t>Hourly</t>
         </is>
       </c>
     </row>
     <row r="7" ht="36" customHeight="1">
       <c r="A7" s="6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B7" s="11" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
       <c r="C7" s="16" t="inlineStr">
         <is>
-          <t>Minutely</t>
+          <t>Monthly</t>
         </is>
       </c>
     </row>
     <row r="8" ht="36" customHeight="1">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
       <c r="C8" s="15" t="inlineStr">
         <is>
-          <t>Quarterly</t>
+          <t>Minutely</t>
         </is>
       </c>
     </row>
     <row r="9" ht="36" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B9" s="11" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
       <c r="C9" s="16" t="inlineStr">
         <is>
-          <t>Half-yearly, semester</t>
+          <t>Quarterly</t>
         </is>
       </c>
     </row>
     <row r="10" ht="36" customHeight="1">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
       <c r="C10" s="15" t="inlineStr">
         <is>
-          <t>Weekly</t>
+          <t>Half-yearly, semester</t>
         </is>
       </c>
     </row>
     <row r="11" ht="36" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>A2</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B11" s="11" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
       <c r="C11" s="16" t="inlineStr">
         <is>
-          <t>Biennial</t>
+          <t>Weekly</t>
         </is>
       </c>
     </row>
     <row r="12" ht="36" customHeight="1">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
       <c r="C12" s="15" t="inlineStr">
         <is>
-          <t>Triennial</t>
+          <t>Biennial</t>
         </is>
       </c>
     </row>
     <row r="13" ht="36" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>A4</t>
+          <t>A3</t>
         </is>
       </c>
       <c r="B13" s="11" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
       <c r="C13" s="16" t="inlineStr">
         <is>
-          <t>Quadrennial</t>
+          <t>Triennial</t>
         </is>
       </c>
     </row>
     <row r="14" ht="36" customHeight="1">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>A5</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B14" s="9" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
       <c r="C14" s="15" t="inlineStr">
         <is>
-          <t>Quinquennial</t>
+          <t>Quadrennial</t>
         </is>
       </c>
     </row>
     <row r="15" ht="36" customHeight="1">
       <c r="A15" s="6" t="inlineStr">
         <is>
-          <t>A10</t>
+          <t>A5</t>
         </is>
       </c>
       <c r="B15" s="11" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
       <c r="C15" s="16" t="inlineStr">
         <is>
-          <t>Decennial</t>
+          <t>Quinquennial</t>
         </is>
       </c>
     </row>
     <row r="16" ht="36" customHeight="1">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>A20</t>
+          <t>A10</t>
         </is>
       </c>
       <c r="B16" s="9" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
       <c r="C16" s="15" t="inlineStr">
         <is>
-          <t>Bidecennial</t>
+          <t>Decennial</t>
         </is>
       </c>
     </row>
     <row r="17" ht="36" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>A30</t>
+          <t>A20</t>
         </is>
       </c>
       <c r="B17" s="11" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
       <c r="C17" s="16" t="inlineStr">
         <is>
-          <t>Tridecennial</t>
+          <t>Bidecennial</t>
         </is>
       </c>
     </row>
     <row r="18" ht="36" customHeight="1">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>A_3</t>
+          <t>A30</t>
         </is>
       </c>
       <c r="B18" s="9" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
       <c r="C18" s="15" t="inlineStr">
         <is>
-          <t>Three times a year</t>
+          <t>Tridecennial</t>
         </is>
       </c>
     </row>
     <row r="19" ht="36" customHeight="1">
       <c r="A19" s="6" t="inlineStr">
         <is>
-          <t>M2</t>
+          <t>A_3</t>
         </is>
       </c>
       <c r="B19" s="11" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
       <c r="C19" s="16" t="inlineStr">
         <is>
-          <t>Bimonthly</t>
+          <t>Three times a year</t>
         </is>
       </c>
     </row>
     <row r="20" ht="36" customHeight="1">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>M_2</t>
+          <t>M2</t>
         </is>
       </c>
       <c r="B20" s="9" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
       <c r="C20" s="15" t="inlineStr">
         <is>
-          <t>Semimonthly</t>
+          <t>Bimonthly</t>
         </is>
       </c>
     </row>
     <row r="21" ht="36" customHeight="1">
       <c r="A21" s="6" t="inlineStr">
         <is>
-          <t>M_3</t>
+          <t>M_2</t>
         </is>
       </c>
       <c r="B21" s="11" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
       <c r="C21" s="16" t="inlineStr">
         <is>
-          <t>Three times a month</t>
+          <t>Semimonthly</t>
         </is>
       </c>
     </row>
     <row r="22" ht="36" customHeight="1">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>W2</t>
+          <t>M_3</t>
         </is>
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
       <c r="C22" s="15" t="inlineStr">
         <is>
-          <t>Biweekly</t>
+          <t>Three times a month</t>
         </is>
       </c>
     </row>
     <row r="23" ht="36" customHeight="1">
       <c r="A23" s="6" t="inlineStr">
         <is>
-          <t>W3</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B23" s="11" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
       <c r="C23" s="16" t="inlineStr">
         <is>
-          <t>Triweekly</t>
+          <t>Biweekly</t>
         </is>
       </c>
     </row>
     <row r="24" ht="36" customHeight="1">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>W4</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
       <c r="C24" s="15" t="inlineStr">
         <is>
-          <t>Four-weekly</t>
+          <t>Triweekly</t>
         </is>
       </c>
     </row>
     <row r="25" ht="36" customHeight="1">
       <c r="A25" s="6" t="inlineStr">
         <is>
-          <t>W_2</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B25" s="11" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
       <c r="C25" s="16" t="inlineStr">
         <is>
-          <t>Semiweekly</t>
+          <t>Four-weekly</t>
         </is>
       </c>
     </row>
     <row r="26" ht="36" customHeight="1">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>W_3</t>
+          <t>W_2</t>
         </is>
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
       <c r="C26" s="15" t="inlineStr">
         <is>
-          <t>Three times a week</t>
+          <t>Semiweekly</t>
         </is>
       </c>
     </row>
     <row r="27" ht="36" customHeight="1">
       <c r="A27" s="6" t="inlineStr">
         <is>
-          <t>D_2</t>
+          <t>W_3</t>
         </is>
       </c>
       <c r="B27" s="11" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
       <c r="C27" s="16" t="inlineStr">
         <is>
-          <t>Twice a day</t>
+          <t>Three times a week</t>
         </is>
       </c>
     </row>
     <row r="28" ht="36" customHeight="1">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>D_2</t>
         </is>
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
       <c r="C28" s="15" t="inlineStr">
         <is>
-          <t>Bihourly</t>
+          <t>Twice a day</t>
         </is>
       </c>
     </row>
     <row r="29" ht="36" customHeight="1">
       <c r="A29" s="6" t="inlineStr">
         <is>
-          <t>H3</t>
+          <t>H2</t>
         </is>
       </c>
       <c r="B29" s="11" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
       <c r="C29" s="16" t="inlineStr">
         <is>
-          <t>Trihourly</t>
+          <t>Bihourly</t>
         </is>
       </c>
     </row>
     <row r="30" ht="36" customHeight="1">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H3</t>
         </is>
       </c>
       <c r="B30" s="9" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
       <c r="C30" s="15" t="inlineStr">
         <is>
-          <t>Irregular</t>
+          <t>Trihourly</t>
         </is>
       </c>
     </row>
     <row r="31" ht="36" customHeight="1">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>OA</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B31" s="11" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
       <c r="C31" s="16" t="inlineStr">
         <is>
-          <t>Occasional annual</t>
+          <t>Irregular</t>
         </is>
       </c>
     </row>
     <row r="32" ht="36" customHeight="1">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>OA</t>
         </is>
       </c>
       <c r="B32" s="9" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
       <c r="C32" s="15" t="inlineStr">
         <is>
-          <t>Occasional monthly</t>
+          <t>Occasional annual</t>
         </is>
       </c>
     </row>
     <row r="33" ht="36" customHeight="1">
       <c r="A33" s="6" t="inlineStr">
         <is>
-          <t>_O</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="B33" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
       <c r="C33" s="16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Occasional monthly</t>
         </is>
       </c>
     </row>
     <row r="34" ht="36" customHeight="1">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>_U</t>
+          <t>_O</t>
         </is>
       </c>
       <c r="B34" s="9" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="C34" s="15" t="inlineStr">
         <is>
-          <t>Unspecified</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35" ht="36" customHeight="1">
       <c r="A35" s="6" t="inlineStr">
         <is>
+          <t>_U</t>
+        </is>
+      </c>
+      <c r="B35" s="11" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+      <c r="C35" s="16" t="inlineStr">
+        <is>
+          <t>Unspecified</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="36" customHeight="1">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
           <t>_Z</t>
         </is>
       </c>
-      <c r="B35" s="11" t="inlineStr">
+      <c r="B36" s="9" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
-      <c r="C35" s="16" t="inlineStr">
+      <c r="C36" s="15" t="inlineStr">
         <is>
           <t>Not applicable</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C35"/>
+  <autoFilter ref="A1:C36"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2322,7 +2587,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="44.2" customWidth="1" min="2" max="2"/>
@@ -2432,7 +2697,7 @@
       <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5.2" customWidth="1" min="1" max="1"/>
     <col width="49.4" customWidth="1" min="2" max="2"/>
